--- a/results/I3_N5_M3_T45_C100_DepCentral_s0_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1844.838428121494</v>
+        <v>1815.305952697247</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.70842812148697</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.059258709012878</v>
+        <v>11.4813936996509</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.059258709012878</v>
+        <v>3.729662429360495</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1130.220000000007</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>690.9099999999999</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,56 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -799,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -846,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -901,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -923,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -973,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>33.88634790002131</v>
       </c>
     </row>
     <row r="4">
@@ -981,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.16307414718501</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -989,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.35124120223184</v>
+        <v>38.23758910225315</v>
       </c>
     </row>
     <row r="6">
@@ -997,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>40.61498263299222</v>
       </c>
     </row>
     <row r="7">
@@ -1005,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.845188035790088</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36.47373972991095</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1021,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.83692585281499</v>
+        <v>43.03593285965943</v>
       </c>
     </row>
     <row r="10">
@@ -1029,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.15481196420991</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1089,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1103,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1117,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1131,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1145,10 +1101,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -1159,10 +1115,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -1173,10 +1129,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
@@ -1187,15 +1143,141 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000065</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -1309,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000065</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9">
@@ -1320,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
@@ -1331,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
@@ -1342,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
@@ -1353,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3750000000008</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -1364,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0400000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
@@ -1375,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9250000000008</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -1386,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.4350000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1397,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7050000000008</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>152.405</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18">
@@ -1419,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>141.345</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19">
@@ -1430,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>146.67</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20">
@@ -1441,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>141.435</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
@@ -1452,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.74</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
@@ -1463,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>165.1699999999998</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23">
@@ -1474,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>152.8</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24">
@@ -1485,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>167.8399999999998</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
@@ -1496,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>164.4249999999998</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26">
@@ -1507,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>160.8</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
@@ -1518,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1529,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -1540,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -1551,7 +1633,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -1562,7 +1644,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1573,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>152.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1584,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>141.345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1595,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>146.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1606,7 +1688,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>141.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1617,7 +1699,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1628,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>101.3750000000008</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38">
@@ -1639,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>103.0400000000008</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39">
@@ -1650,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>103.9250000000008</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40">
@@ -1661,7 +1743,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>105.4350000000008</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41">
@@ -1672,7 +1754,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>105.7050000000008</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42">
@@ -1683,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>165.1699999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1694,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>152.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1705,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>167.8399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1716,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>164.4249999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1727,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>160.8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>52.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1785,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>41.345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1796,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>46.66999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1807,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>41.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1818,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>52.74000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1829,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.375000000000796</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -1840,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.040000000000802</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9">
@@ -1851,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3.925000000000807</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1862,7 +1944,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.435000000000798</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
@@ -1873,7 +1955,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.705000000000794</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
@@ -1884,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>65.16999999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1895,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>52.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1906,7 +1988,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>67.83999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1917,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>64.42499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1928,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>60.8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1975,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1986,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1997,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2008,7 +2090,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2019,7 +2101,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2030,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2041,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2052,7 +2134,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2063,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2074,7 +2156,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2140,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2151,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2162,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2173,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2184,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2195,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2206,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2217,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2228,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2239,7 +2321,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2280,7 +2362,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2291,7 +2373,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2302,7 +2384,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2313,7 +2395,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2324,7 +2406,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2335,10 +2417,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2346,10 +2428,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2357,10 +2439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2371,7 +2453,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2382,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2390,10 +2472,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2401,10 +2483,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2412,10 +2494,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2426,7 +2508,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2437,9 +2519,42 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
         <v>1</v>
       </c>
     </row>
